--- a/2023_era_data.xlsx
+++ b/2023_era_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C864"/>
+  <dimension ref="A1:C880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11664,6 +11664,214 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>ángel perdomo</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>brent honeywell</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>carl edwards</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>daniel lynch</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>duane underwood</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>j.b. bukauskas</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>j.t. chargois</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>jaime barría</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>jose ferrer</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>julio teherán</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>mark leiter</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>matt boyd</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>matthew bowman</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>mike king</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>néstor cortés</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>nick martínez</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
